--- a/data/ccrg and procm genes.xlsx
+++ b/data/ccrg and procm genes.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wosnat\Documents\GitHub\sep\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB768E1-E006-45A0-88E7-1EC345F6159A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28487BC8-7CB6-4E0C-9446-20807526DCC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{A57D601A-96A7-4F16-9AE0-6DE991F1EEE2}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{A57D601A-96A7-4F16-9AE0-6DE991F1EEE2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="proc" sheetId="1" r:id="rId1"/>
     <sheet name="data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="127">
   <si>
     <t>Gene</t>
   </si>
@@ -774,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0BD685B-3067-4F7D-AA37-61314B7EDFAC}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1814,10 +1814,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C836826-4092-4F9F-AE28-31EEA2BC4BE0}">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2193,6 +2193,14 @@
         <v>93</v>
       </c>
     </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47" t="s">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
